--- a/database/exp.xlsx
+++ b/database/exp.xlsx
@@ -14,30 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>俞涛然</t>
+    <t>甲</t>
   </si>
   <si>
-    <t>秦立</t>
+    <t>乙</t>
   </si>
   <si>
-    <t>顾彰琪</t>
+    <t>丙</t>
   </si>
   <si>
-    <t>龚哲煜</t>
+    <t>丁</t>
   </si>
   <si>
-    <t>陈珞</t>
+    <t>戊</t>
   </si>
   <si>
-    <t>潘承安</t>
+    <t>己</t>
   </si>
   <si>
-    <t>夏义维</t>
+    <t>庚</t>
   </si>
   <si>
-    <t>胡哲豪</t>
+    <t>辛</t>
+  </si>
+  <si>
+    <t>壬</t>
+  </si>
+  <si>
+    <t>癸</t>
+  </si>
+  <si>
+    <t>我</t>
   </si>
 </sst>
 </file>
@@ -60,22 +69,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,17 +121,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,21 +162,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,9 +182,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,21 +209,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -212,13 +221,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,169 +377,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,41 +412,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,7 +434,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,11 +454,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,6 +503,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -511,145 +520,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -976,13 +985,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1046,6 +1055,30 @@
       </c>
       <c r="B8">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
